--- a/biology/Médecine/Jacques_Gohory/Jacques_Gohory.xlsx
+++ b/biology/Médecine/Jacques_Gohory/Jacques_Gohory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Gohory (né à Paris le 20 mars 1520, mort le 15 mars 1576) est un avocat, médecin et alchimiste français de la Renaissance.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille de la noblesse de robe, il fait ses études au collège Sainte-Barbe et devient avocat au parlement de Paris, comme son père, Pierre Gohory, sieur de la Tour et de Laval. 
 De 1543 à 1556, il suivit la cour de François Ier dans le sillage du connétable Anne de Montmorency et du diplomate Odet de Selve.
-Il est l'un des premiers introducteurs et défenseurs de la médecine et de la pensée de Paracelse (~1493-1541) en France. Il rédige le texte du Livre de la Conqueste de la Toison d'or (Paris, 1563), composé de vingt-six estampes de René Boyvin[1]. Il est l'auteur sur le sujet d'un Compendium (1568)[2] en 1567 sous le pseudonyme de Leo Suavius. En 1571, il fonde un « Lycium Philosophal »[3], sorte d'académie privée de médecine.
+Il est l'un des premiers introducteurs et défenseurs de la médecine et de la pensée de Paracelse (~1493-1541) en France. Il rédige le texte du Livre de la Conqueste de la Toison d'or (Paris, 1563), composé de vingt-six estampes de René Boyvin. Il est l'auteur sur le sujet d'un Compendium (1568) en 1567 sous le pseudonyme de Leo Suavius. En 1571, il fonde un « Lycium Philosophal », sorte d'académie privée de médecine.
 Il est également l'auteur d'un des premiers traités sur le tabac, vu alors comme une plante médicinale : L'instruction sur l'herbe petum (1572).
-Il est enfin le premier traducteur en français de Machiavel et aussi celui d'Amadis de Gaule[4].
-Selon Emanuela Kretzulesco-Quaranta[5], Jacques Gohory fut responsable des éditions Jacques Kerver, à Paris. Il y publia Le Songe de Poliphile, à trois reprises, en 1546, 1554 et 1561. Il affirmait en avoir reçu le manuscrit, d’une version déjà ancienne, des mains d’un chevalier de Malte, dont il respectait l’anonymat.
+Il est enfin le premier traducteur en français de Machiavel et aussi celui d'Amadis de Gaule.
+Selon Emanuela Kretzulesco-Quaranta, Jacques Gohory fut responsable des éditions Jacques Kerver, à Paris. Il y publia Le Songe de Poliphile, à trois reprises, en 1546, 1554 et 1561. Il affirmait en avoir reçu le manuscrit, d’une version déjà ancienne, des mains d’un chevalier de Malte, dont il respectait l’anonymat.
 </t>
         </is>
       </c>
